--- a/test/abs1n5.xlsx
+++ b/test/abs1n5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7BFE41-0662-44EA-89FC-B0094C36D142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F721078-44C5-466B-AC48-66B2EDC75957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="0" windowWidth="10320" windowHeight="10920" activeTab="1" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E18A145F-BAE8-4E1E-8EB2-101646E3D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -105,28 +105,28 @@
     <t>1 2 3 4 5 6</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>1 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2">
         <v>154</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -705,7 +705,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -794,7 +794,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
